--- a/data/outputs/management/83.xlsx
+++ b/data/outputs/management/83.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ109"/>
+  <dimension ref="A1:BR109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -915,6 +920,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4581740</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1122,6 +1132,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>4581741</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1329,6 +1344,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>4581742</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1540,6 +1560,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4501785</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1739,6 +1764,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4586076</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1950,6 +1980,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>4584048</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2153,6 +2188,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2368,6 +2404,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2583,6 +2620,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>56482621</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2786,6 +2828,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2989,6 +3032,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3196,6 +3240,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3403,6 +3448,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3598,6 +3644,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3813,6 +3860,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>4584049</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4020,6 +4072,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4227,6 +4280,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4442,6 +4496,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4649,6 +4704,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4856,6 +4912,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5059,6 +5116,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>4591113</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5258,6 +5320,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>4357469</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5469,6 +5536,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5668,6 +5736,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5867,6 +5936,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>31797087</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6070,6 +6144,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6269,6 +6344,11 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>4464504</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6476,6 +6556,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6687,6 +6768,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6894,6 +6976,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7113,6 +7196,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7320,6 +7404,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7531,6 +7616,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>4336935</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7744,6 +7834,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>6328944</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7943,6 +8038,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8142,6 +8238,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8341,6 +8438,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8548,6 +8646,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8755,6 +8854,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>3905937</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8962,6 +9066,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>4330483</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9177,6 +9286,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9380,6 +9490,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9591,6 +9702,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9806,6 +9918,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10005,6 +10118,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>4579605</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10212,6 +10330,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10415,6 +10534,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10622,6 +10742,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10837,6 +10958,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11048,6 +11170,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11247,6 +11370,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11454,6 +11578,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11665,6 +11790,11 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>52970872</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11872,6 +12002,11 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr">
+        <is>
+          <t>8606617</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12079,6 +12214,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>4340272</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12278,6 +12418,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12489,6 +12630,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12700,6 +12842,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12915,6 +13058,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13118,6 +13262,11 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr">
+        <is>
+          <t>3815146</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13329,6 +13478,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13544,6 +13694,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13743,6 +13894,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13958,6 +14110,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14165,6 +14318,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14372,6 +14526,11 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr">
+        <is>
+          <t>4966024</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14587,6 +14746,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14786,6 +14946,11 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr">
+        <is>
+          <t>4189491</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14997,6 +15162,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15196,6 +15362,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15399,6 +15566,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15594,6 +15762,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15809,6 +15978,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16008,6 +16178,11 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr">
+        <is>
+          <t>3726215</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16207,6 +16382,11 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr">
+        <is>
+          <t>3731970</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16424,6 +16604,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16631,6 +16812,11 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr">
+        <is>
+          <t>4186025</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16846,6 +17032,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17065,6 +17252,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17276,6 +17464,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17487,6 +17676,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17690,6 +17880,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17897,6 +18088,11 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr">
+        <is>
+          <t>3057548</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18096,6 +18292,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18309,6 +18506,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18516,6 +18714,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18727,6 +18926,11 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr">
+        <is>
+          <t>3005824</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18930,6 +19134,11 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr">
+        <is>
+          <t>3895932</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19137,6 +19346,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19344,6 +19554,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19551,6 +19762,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19766,6 +19978,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19969,6 +20182,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20182,6 +20396,11 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr">
+        <is>
+          <t>4020149</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20385,6 +20604,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20584,6 +20804,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20783,6 +21004,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -20982,6 +21204,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21189,6 +21412,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21396,6 +21620,11 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr">
+        <is>
+          <t>3824818</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21595,6 +21824,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21794,6 +22024,11 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr">
+        <is>
+          <t>3033194</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22001,6 +22236,11 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr">
+        <is>
+          <t>3050294</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22208,6 +22448,11 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr">
+        <is>
+          <t>6761836</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22407,6 +22652,11 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr">
+        <is>
+          <t>4566715</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22606,6 +22856,11 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr">
+        <is>
+          <t>3051662</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22809,6 +23064,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23012,6 +23268,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
